--- a/individual_results/avey/295.xlsx
+++ b/individual_results/avey/295.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
         <v>0.5</v>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="n">
         <v>0.2</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P2" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0.2</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>0.6666666666666666</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3" t="n">
         <v>0.3333333333333333</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0.3333333333333333</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="C4" t="n">
         <v>0.5714285714285715</v>
@@ -724,18 +724,16 @@
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="M4" t="n">
         <v>0.25</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.1818181818181818</v>
-      </c>
+        <v>0.2857142857142858</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
         <v>0.25</v>
       </c>
@@ -761,7 +759,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.625</v>
       </c>
       <c r="C5" t="n">
         <v>0.625</v>
@@ -787,18 +785,16 @@
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="M5" t="n">
         <v>0.2941176470588235</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.25</v>
-      </c>
+        <v>0.3125</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
         <v>0.2941176470588235</v>
       </c>
@@ -824,7 +820,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8624444439776621</v>
+        <v>0.5741414090136012</v>
       </c>
       <c r="C6" t="n">
         <v>0.4569494273838043</v>
@@ -854,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2661616193664992</v>
+        <v>0.1064646477465997</v>
       </c>
       <c r="M6" t="n">
         <v>0.1375554841440053</v>
@@ -863,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1736363617134338</v>
+        <v>0.1064646477465997</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03358585698341708</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0.1235584435560261</v>
@@ -1167,7 +1163,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="C11" t="n">
         <v>1.333333333333333</v>
@@ -1197,7 +1193,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11" t="n">
         <v>1.666666666666667</v>
@@ -1206,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="P11" t="n">
         <v>2.666666666666667</v>
